--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -3854,9 +3854,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3940,32 +3940,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3978,18 +3954,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4000,23 +3991,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4038,31 +4015,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4078,9 +4040,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4140,7 +4140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,37 +4170,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,19 +4224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4224,13 +4236,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,55 +4296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4337,13 +4337,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4365,8 +4369,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4396,6 +4402,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4410,30 +4434,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4442,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,133 +4454,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5064,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
+      <selection pane="bottomRight" activeCell="G341" sqref="G341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13645,13 +13645,13 @@
         <v>991</v>
       </c>
       <c r="E337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" s="32" t="s">
         <v>992</v>
@@ -13671,13 +13671,13 @@
         <v>995</v>
       </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="s">
         <v>996</v>
@@ -13694,13 +13694,13 @@
         <v>998</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="s">
         <v>996</v>
@@ -13720,13 +13720,13 @@
         <v>1001</v>
       </c>
       <c r="E340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
         <v>1002</v>

--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3130,6 +3196,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3140,6 +3207,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3458,6 +3526,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3467,7 +3536,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3476,6 +3545,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3556,6 +3626,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3566,6 +3637,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3695,6 +3767,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3705,6 +3778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3779,9 +3853,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
   </si>
   <si>
     <t>龙腾礼包</t>
@@ -3848,18 +3919,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,49 +3940,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3925,177 +3997,58 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4110,13 +4063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4138,182 +4091,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4336,255 +4115,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4614,16 +4151,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4741,63 +4278,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5055,20 +4548,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G341" sqref="G341"/>
+      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5084,7 +4576,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5113,7 +4605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6437,7 +5929,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6619,7 +6111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6983,7 +6475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7035,7 +6527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8153,7 +7645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9723,7 +9215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9747,7 +9239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9771,7 +9263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10793,7 +10285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10816,7 +10308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10839,7 +10331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10862,7 +10354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10885,7 +10377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10908,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10931,7 +10423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10954,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10977,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11547,7 +11039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11573,7 +11065,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11599,7 +11091,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11625,7 +11117,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11651,7 +11143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11729,7 +11221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11755,7 +11247,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11781,7 +11273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11807,7 +11299,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11833,7 +11325,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11859,7 +11351,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12047,7 +11539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12073,7 +11565,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12096,7 +11588,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12250,7 +11742,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12276,7 +11768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12328,7 +11820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12354,7 +11846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12380,7 +11872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12406,7 +11898,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12432,7 +11924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12458,7 +11950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12484,7 +11976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12510,7 +12002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12536,7 +12028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12562,7 +12054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12666,7 +12158,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12692,7 +12184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12718,7 +12210,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12744,7 +12236,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12770,7 +12262,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12796,7 +12288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12822,7 +12314,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12848,7 +12340,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12874,7 +12366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12900,7 +12392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12926,7 +12418,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12952,7 +12444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12978,7 +12470,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13004,7 +12496,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13027,7 +12519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13053,7 +12545,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13079,7 +12571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13105,7 +12597,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13131,7 +12623,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13154,7 +12646,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13177,7 +12669,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13200,7 +12692,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13223,7 +12715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13246,7 +12738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13272,7 +12764,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13296,7 +12788,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13322,7 +12814,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13345,7 +12837,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13374,7 +12866,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13400,7 +12892,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13426,7 +12918,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13452,7 +12944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13587,22 +13079,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>984</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13610,13 +13102,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13636,25 +13128,25 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>989</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>990</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="E337" s="5">
+        <v>0</v>
+      </c>
+      <c r="F337" s="5">
+        <v>0</v>
+      </c>
+      <c r="G337" s="5">
+        <v>0</v>
+      </c>
+      <c r="I337" s="32" t="s">
         <v>991</v>
-      </c>
-      <c r="E337" s="5">
-        <v>0</v>
-      </c>
-      <c r="F337" s="5">
-        <v>0</v>
-      </c>
-      <c r="G337" s="5">
-        <v>0</v>
-      </c>
-      <c r="I337" s="32" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13662,25 +13154,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="50" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="I338" t="s">
         <v>995</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-      <c r="G338">
-        <v>0</v>
-      </c>
-      <c r="I338" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13688,11 +13180,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C339" t="s">
         <v>997</v>
       </c>
-      <c r="C339" t="s">
-        <v>998</v>
-      </c>
       <c r="E339">
         <v>0</v>
       </c>
@@ -13703,69 +13195,66 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="340" ht="15.75" spans="1:9">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C340" t="s">
         <v>999</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>1000</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1001</v>
       </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1002</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3467,7 +3472,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3852,14 +3857,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="35">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3871,7 +3870,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3883,13 +3882,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3907,13 +3906,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3925,168 +3924,24 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4101,8 +3956,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4117,13 +3985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,194 +4013,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4355,255 +4037,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4633,16 +4073,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4760,63 +4200,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5074,20 +4470,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5103,7 +4498,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5132,7 +4527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6456,7 +5851,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6638,7 +6033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -7002,7 +6397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7016,16 +6411,16 @@
         <v>232</v>
       </c>
       <c r="E74" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="24">
-        <v>44298</v>
+        <v>44340</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7054,7 +6449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8172,7 +7567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9742,7 +9137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9766,7 +9161,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9790,7 +9185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10812,7 +10207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10835,7 +10230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10858,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10881,7 +10276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10904,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10927,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10950,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10973,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10996,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11566,7 +10961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11592,7 +10987,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11618,7 +11013,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11644,7 +11039,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11670,7 +11065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11748,7 +11143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11774,7 +11169,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11800,7 +11195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11826,7 +11221,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11852,7 +11247,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11878,7 +11273,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12066,7 +11461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12092,7 +11487,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12115,7 +11510,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12269,7 +11664,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12295,7 +11690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12347,7 +11742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12373,7 +11768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12399,7 +11794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12425,7 +11820,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12451,7 +11846,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12477,7 +11872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12503,7 +11898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12529,7 +11924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12555,7 +11950,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12581,7 +11976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12685,7 +12080,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12711,7 +12106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12737,7 +12132,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12763,7 +12158,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12789,7 +12184,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12815,7 +12210,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12841,7 +12236,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12867,7 +12262,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12893,7 +12288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12919,7 +12314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12945,7 +12340,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12971,7 +12366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12997,7 +12392,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13023,7 +12418,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13046,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13072,7 +12467,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13098,7 +12493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13124,7 +12519,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13150,7 +12545,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13173,7 +12568,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13196,7 +12591,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13219,7 +12614,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13242,7 +12637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13265,7 +12660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13291,7 +12686,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13315,7 +12710,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13341,7 +12736,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13364,7 +12759,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13393,7 +12788,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13419,7 +12814,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13445,7 +12840,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13471,7 +12866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13725,7 +13120,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13752,39 +13147,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3817,13 +3817,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_054_byns</t>
@@ -3851,10 +3854,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3938,44 +3941,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3990,15 +3963,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4012,27 +4000,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4068,12 +4040,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4086,13 +4061,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4137,13 +4140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4155,13 +4164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4173,7 +4176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4185,7 +4188,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4203,55 +4242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4269,19 +4260,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4293,7 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,19 +4308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4346,6 +4337,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4370,21 +4424,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4392,54 +4431,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4451,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4463,133 +4454,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5073,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C262" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D323" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="I345" sqref="I345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13680,13 +13671,13 @@
         <v>994</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" t="s">
         <v>995</v>
@@ -13712,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13720,13 +13711,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C340" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D340" s="49" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13738,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -13768,7 +13759,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -42,7 +37,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -507,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -518,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -527,7 +521,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -537,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,7 +539,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -556,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +557,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -575,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -673,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -759,7 +750,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -777,7 +767,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -795,7 +784,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -858,7 +846,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -876,7 +863,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1146,7 +1132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1248,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1275,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1284,7 +1266,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1311,7 +1292,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1329,7 +1309,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,7 +1326,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1365,7 +1343,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1375,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1384,7 +1361,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,7 +1378,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1412,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1421,7 +1396,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1439,7 +1413,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1449,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1458,7 +1431,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1468,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1485,7 +1457,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1495,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1504,7 +1475,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1522,7 +1492,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1532,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1510,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1559,7 +1527,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1569,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1578,7 +1545,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1596,7 +1562,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1614,7 +1579,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1632,7 +1596,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1650,7 +1613,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1668,7 +1630,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1678,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1687,7 +1648,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1705,7 +1665,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1715,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1724,7 +1683,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1742,7 +1700,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1752,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1761,7 +1718,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1779,7 +1735,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1789,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1798,7 +1753,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1816,7 +1770,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1826,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1835,7 +1788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1853,7 +1805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1863,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1872,7 +1823,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1890,7 +1840,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1900,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1909,7 +1858,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1936,7 +1884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1954,7 +1901,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1972,7 +1918,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1990,7 +1935,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2008,7 +1952,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2035,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2044,7 +1987,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2062,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2071,7 +2013,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2098,7 +2039,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2125,7 +2065,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2143,7 +2082,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2176,7 +2114,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,7 +2124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,7 +2799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2874,7 +2809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3196,7 +3130,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3207,7 +3140,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3526,7 +3458,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3536,7 +3467,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3545,7 +3476,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3626,7 +3556,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3637,7 +3566,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3705,7 +3633,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <t>sys_act_base_style/sys_act_base_weekly_016</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3767,7 +3695,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3778,7 +3705,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3853,6 +3779,9 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
   </si>
   <si>
     <t>龙腾礼包</t>
@@ -3919,16 +3848,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3940,52 +3871,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3997,58 +3925,184 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4063,13 +4117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4091,8 +4145,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4115,13 +4355,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4151,16 +4633,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4278,19 +4760,63 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4548,19 +5074,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C341" sqref="C341"/>
+      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4576,7 +5103,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4605,7 +5132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5929,7 +6456,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6111,7 +6638,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6475,7 +7002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6527,7 +7054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7645,7 +8172,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9215,7 +9742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9239,7 +9766,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9263,7 +9790,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10285,7 +10812,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10308,7 +10835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10331,7 +10858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10354,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10377,7 +10904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10400,7 +10927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10423,7 +10950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10446,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10469,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11039,7 +11566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11065,7 +11592,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11091,7 +11618,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11117,7 +11644,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11143,7 +11670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11221,7 +11748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11247,7 +11774,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11273,7 +11800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11299,7 +11826,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11325,7 +11852,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11351,7 +11878,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11539,7 +12066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11565,7 +12092,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11588,7 +12115,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11742,7 +12269,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11768,7 +12295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11820,7 +12347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11846,7 +12373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11872,7 +12399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11898,7 +12425,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11924,7 +12451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11950,7 +12477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11976,7 +12503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12002,7 +12529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12028,7 +12555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12054,7 +12581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12158,7 +12685,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12184,7 +12711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12210,7 +12737,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12236,7 +12763,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12262,7 +12789,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12288,7 +12815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12314,7 +12841,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12340,7 +12867,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12366,7 +12893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12392,7 +12919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12418,7 +12945,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12444,7 +12971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12470,7 +12997,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12496,7 +13023,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12519,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12545,7 +13072,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12571,7 +13098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12597,7 +13124,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12623,7 +13150,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12646,7 +13173,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12669,7 +13196,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -12692,7 +13219,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12715,7 +13242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12738,7 +13265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12764,7 +13291,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12788,7 +13315,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12814,7 +13341,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12837,7 +13364,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12866,7 +13393,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12892,7 +13419,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12918,7 +13445,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12944,7 +13471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13079,10 +13606,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="C335" s="32" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13094,7 +13621,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13102,13 +13629,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13128,13 +13655,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13146,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13154,13 +13681,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C338" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D338" s="50" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -13172,7 +13699,7 @@
         <v>0</v>
       </c>
       <c r="I338" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13180,36 +13707,36 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C339" t="s">
+        <v>998</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>0</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="I339" t="s">
         <v>996</v>
       </c>
-      <c r="C339" t="s">
-        <v>997</v>
-      </c>
-      <c r="E339">
-        <v>0</v>
-      </c>
-      <c r="F339">
-        <v>0</v>
-      </c>
-      <c r="G339">
-        <v>0</v>
-      </c>
-      <c r="I339" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C340" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D340" s="49" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13221,40 +13748,43 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.18\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1003">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -506,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -517,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -535,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -553,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -571,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -669,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1262,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1357,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1392,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1427,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1445,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1471,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1506,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1644,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1679,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1714,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1749,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1784,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1819,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1854,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1983,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2009,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3472,7 +3467,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3608,28 +3603,28 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>act_ty_sjb_style/act_015_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（福气）</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_011_boss</t>
+  </si>
+  <si>
+    <t>活动boss皮肤（五星）</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
-  </si>
-  <si>
-    <t>5月24日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
   </si>
   <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
@@ -3768,13 +3763,13 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福好礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年4月12日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3811,9 +3806,6 @@
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
-  </si>
-  <si>
-    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3857,8 +3849,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3870,7 +3868,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3882,13 +3880,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3906,13 +3904,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3924,19 +3922,149 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3945,9 +4073,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3956,21 +4091,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3985,13 +4107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4013,8 +4135,194 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4037,13 +4345,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4073,16 +4623,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4200,19 +4750,63 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4470,19 +5064,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C262" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4498,7 +5093,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4527,7 +5122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5851,7 +6446,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6033,7 +6628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6397,7 +6992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6449,7 +7044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7567,7 +8162,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9137,7 +9732,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9161,7 +9756,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9185,7 +9780,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10207,7 +10802,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10230,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10253,7 +10848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10276,7 +10871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10299,7 +10894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10322,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10345,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10368,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10391,7 +10986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -10961,7 +11556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -10987,7 +11582,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11013,7 +11608,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11039,7 +11634,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11065,7 +11660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11143,7 +11738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11169,7 +11764,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11195,7 +11790,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11221,7 +11816,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11247,7 +11842,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11273,7 +11868,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11461,7 +12056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11475,19 +12070,19 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11510,7 +12105,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11664,7 +12259,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11690,7 +12285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11742,7 +12337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11768,7 +12363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11794,7 +12389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11820,7 +12415,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11846,7 +12441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11872,7 +12467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11898,7 +12493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11924,7 +12519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -11950,7 +12545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -11976,7 +12571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12080,7 +12675,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12106,7 +12701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12132,7 +12727,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12158,7 +12753,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12184,7 +12779,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12210,7 +12805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12236,7 +12831,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12262,7 +12857,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12288,7 +12883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12314,7 +12909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12340,7 +12935,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12366,7 +12961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12392,7 +12987,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12418,7 +13013,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12441,7 +13036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12467,7 +13062,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12493,7 +13088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12519,7 +13114,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12545,7 +13140,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12568,7 +13163,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12588,33 +13183,33 @@
         <v>1</v>
       </c>
       <c r="I318" s="37" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
+        <v>935</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="C319" s="37" t="s">
+      <c r="E319" s="6">
+        <v>0</v>
+      </c>
+      <c r="F319" s="6">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6">
+        <v>0</v>
+      </c>
+      <c r="I319" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="E319" s="6">
-        <v>1</v>
-      </c>
-      <c r="F319" s="6">
-        <v>1</v>
-      </c>
-      <c r="G319" s="6">
-        <v>1</v>
-      </c>
-      <c r="I319" s="37" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    </row>
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12637,7 +13232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12660,7 +13255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12686,7 +13281,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12710,7 +13305,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12736,7 +13331,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12759,7 +13354,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12788,7 +13383,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12814,7 +13409,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -12840,7 +13435,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -12866,7 +13461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13068,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13076,25 +13671,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
+        <v>992</v>
+      </c>
+      <c r="C338" t="s">
         <v>993</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="50" t="s">
         <v>994</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="I338" t="s">
         <v>995</v>
-      </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-      <c r="G338">
-        <v>0</v>
-      </c>
-      <c r="I338" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13102,11 +13697,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>996</v>
+      </c>
+      <c r="C339" t="s">
         <v>997</v>
       </c>
-      <c r="C339" t="s">
-        <v>998</v>
-      </c>
       <c r="E339">
         <v>0</v>
       </c>
@@ -13117,66 +13712,69 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
+        <v>998</v>
+      </c>
+      <c r="C340" t="s">
         <v>999</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>1000</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1001</v>
       </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1002</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:H340">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -3805,13 +3805,13 @@
     <t>act_053_xcns</t>
   </si>
   <si>
-    <t>消除达人</t>
+    <t>爱消福利</t>
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>2021年4月19日 23:59:59</t>
+    <t>2021年5月24日 23:59:59</t>
   </si>
   <si>
     <t>act_040_mslb</t>
@@ -3857,12 +3857,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3931,6 +3931,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
@@ -3945,7 +3951,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3959,7 +3965,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3973,17 +4017,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3997,16 +4040,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4021,8 +4057,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4030,52 +4081,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4137,6 +4143,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4149,7 +4185,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4161,121 +4269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4293,13 +4287,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4349,11 +4355,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4375,50 +4411,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4431,6 +4426,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4439,10 +4445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4451,16 +4457,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4469,121 +4475,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4728,10 +4734,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5058,11 +5067,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A318" sqref="A318"/>
+      <selection pane="bottomRight" activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13626,7 +13635,7 @@
       </c>
     </row>
     <row r="337" spans="1:9">
-      <c r="A337" s="13">
+      <c r="A337" s="48">
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
@@ -13655,13 +13664,13 @@
       <c r="A338" s="13">
         <v>337</v>
       </c>
-      <c r="B338" s="48" t="s">
+      <c r="B338" s="49" t="s">
         <v>994</v>
       </c>
       <c r="C338" t="s">
         <v>995</v>
       </c>
-      <c r="D338" s="49" t="s">
+      <c r="D338" s="50" t="s">
         <v>996</v>
       </c>
       <c r="E338">
@@ -13704,13 +13713,13 @@
       <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="48" t="s">
+      <c r="B340" s="49" t="s">
         <v>1000</v>
       </c>
       <c r="C340" t="s">
         <v>1001</v>
       </c>
-      <c r="D340" s="48" t="s">
+      <c r="D340" s="49" t="s">
         <v>1002</v>
       </c>
       <c r="E340" s="5">

--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3276,16 +3276,13 @@
     <t>XRZXGiftManager</t>
   </si>
   <si>
-    <t>act_034_ldfd</t>
+    <t>act_ty_ldfd</t>
   </si>
   <si>
     <t>立冬福袋</t>
   </si>
   <si>
-    <t>Act_034_LDFDManager</t>
-  </si>
-  <si>
-    <t>2月8日23:59:59</t>
+    <t>Act_ty_LDFDManager</t>
   </si>
   <si>
     <t>by3d_shtx</t>
@@ -3857,10 +3854,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3943,6 +3940,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3950,8 +3948,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3964,8 +3985,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3980,30 +4039,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4017,32 +4053,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4057,31 +4077,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4143,7 +4140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4155,7 +4152,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4167,19 +4194,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,25 +4260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4221,43 +4278,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4269,37 +4296,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4311,7 +4308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4340,6 +4337,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4355,17 +4363,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4379,16 +4381,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4413,27 +4415,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4445,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4457,133 +4454,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5067,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C313" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A337" sqref="A337"/>
+      <selection pane="bottomRight" activeCell="I288" sqref="I288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12406,7 +12403,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="37" t="s">
-        <v>839</v>
+        <v>723</v>
       </c>
     </row>
     <row r="289" s="7" customFormat="1" spans="1:9">
@@ -12414,13 +12411,13 @@
         <v>288</v>
       </c>
       <c r="B289" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C289" s="39" t="s">
         <v>840</v>
       </c>
-      <c r="C289" s="39" t="s">
+      <c r="D289" s="38" t="s">
         <v>841</v>
-      </c>
-      <c r="D289" s="38" t="s">
-        <v>842</v>
       </c>
       <c r="E289" s="7">
         <v>1</v>
@@ -12440,13 +12437,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="38" t="s">
+        <v>842</v>
+      </c>
+      <c r="C290" s="39" t="s">
         <v>843</v>
       </c>
-      <c r="C290" s="39" t="s">
+      <c r="D290" s="38" t="s">
         <v>844</v>
-      </c>
-      <c r="D290" s="38" t="s">
-        <v>845</v>
       </c>
       <c r="E290" s="7">
         <v>1</v>
@@ -12466,13 +12463,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
+        <v>845</v>
+      </c>
+      <c r="C291" s="39" t="s">
         <v>846</v>
       </c>
-      <c r="C291" s="39" t="s">
+      <c r="D291" s="38" t="s">
         <v>847</v>
-      </c>
-      <c r="D291" s="38" t="s">
-        <v>848</v>
       </c>
       <c r="E291" s="7">
         <v>1</v>
@@ -12492,13 +12489,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
+        <v>848</v>
+      </c>
+      <c r="C292" s="39" t="s">
         <v>849</v>
       </c>
-      <c r="C292" s="39" t="s">
+      <c r="D292" s="38" t="s">
         <v>850</v>
-      </c>
-      <c r="D292" s="38" t="s">
-        <v>851</v>
       </c>
       <c r="E292" s="7">
         <v>1</v>
@@ -12518,13 +12515,13 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="C293" s="39" t="s">
         <v>852</v>
       </c>
-      <c r="C293" s="39" t="s">
+      <c r="D293" s="38" t="s">
         <v>853</v>
-      </c>
-      <c r="D293" s="38" t="s">
-        <v>854</v>
       </c>
       <c r="E293" s="7">
         <v>1</v>
@@ -12544,13 +12541,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
+        <v>854</v>
+      </c>
+      <c r="C294" s="39" t="s">
         <v>855</v>
       </c>
-      <c r="C294" s="39" t="s">
+      <c r="D294" s="38" t="s">
         <v>856</v>
-      </c>
-      <c r="D294" s="38" t="s">
-        <v>857</v>
       </c>
       <c r="E294" s="7">
         <v>1</v>
@@ -12570,13 +12567,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
+        <v>857</v>
+      </c>
+      <c r="C295" s="39" t="s">
         <v>858</v>
       </c>
-      <c r="C295" s="39" t="s">
+      <c r="D295" s="38" t="s">
         <v>859</v>
-      </c>
-      <c r="D295" s="38" t="s">
-        <v>860</v>
       </c>
       <c r="E295" s="7">
         <v>1</v>
@@ -12596,25 +12593,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="41" t="s">
+        <v>860</v>
+      </c>
+      <c r="C296" s="32" t="s">
         <v>861</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="D296" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="D296" s="41" t="s">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="32" t="s">
         <v>863</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="I296" s="32" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12622,25 +12619,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="41" t="s">
+        <v>864</v>
+      </c>
+      <c r="C297" s="32" t="s">
         <v>865</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="D297" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="D297" s="41" t="s">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="32" t="s">
         <v>867</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="32" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12648,14 +12645,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="41" t="s">
+        <v>868</v>
+      </c>
+      <c r="C298" s="32" t="s">
         <v>869</v>
       </c>
-      <c r="C298" s="32" t="s">
+      <c r="D298" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="D298" s="41" t="s">
-        <v>871</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12666,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="299" s="5" customFormat="1" spans="1:9">
@@ -12674,13 +12671,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>871</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>872</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="D299" s="33" t="s">
         <v>873</v>
-      </c>
-      <c r="D299" s="33" t="s">
-        <v>874</v>
       </c>
       <c r="E299" s="5">
         <v>1</v>
@@ -12700,25 +12697,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="C300" s="32" t="s">
+      <c r="D300" s="33" t="s">
         <v>876</v>
       </c>
-      <c r="D300" s="33" t="s">
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="I300" s="32" t="s">
         <v>877</v>
-      </c>
-      <c r="E300" s="5">
-        <v>0</v>
-      </c>
-      <c r="F300" s="5">
-        <v>0</v>
-      </c>
-      <c r="G300" s="5">
-        <v>0</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="301" s="5" customFormat="1" spans="1:9">
@@ -12726,14 +12723,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
+        <v>878</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C301" s="32" t="s">
+      <c r="D301" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="D301" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="E301" s="5">
         <v>0</v>
       </c>
@@ -12744,7 +12741,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="302" s="5" customFormat="1" spans="1:9">
@@ -12752,14 +12749,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C302" s="32" t="s">
         <v>882</v>
       </c>
-      <c r="C302" s="32" t="s">
+      <c r="D302" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="D302" s="33" t="s">
-        <v>884</v>
-      </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
@@ -12770,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="303" s="5" customFormat="1" spans="1:9">
@@ -12778,13 +12775,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="C303" s="32" t="s">
         <v>885</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="D303" s="33" t="s">
         <v>886</v>
-      </c>
-      <c r="D303" s="33" t="s">
-        <v>887</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -12804,25 +12801,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="C304" s="32" t="s">
         <v>888</v>
       </c>
-      <c r="C304" s="32" t="s">
+      <c r="D304" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="D304" s="33" t="s">
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+      <c r="G304" s="5">
+        <v>1</v>
+      </c>
+      <c r="I304" s="32" t="s">
         <v>890</v>
-      </c>
-      <c r="E304" s="5">
-        <v>1</v>
-      </c>
-      <c r="F304" s="5">
-        <v>1</v>
-      </c>
-      <c r="G304" s="5">
-        <v>1</v>
-      </c>
-      <c r="I304" s="32" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="305" s="5" customFormat="1" spans="1:9">
@@ -12830,14 +12827,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="C305" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="D305" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="D305" s="33" t="s">
-        <v>894</v>
-      </c>
       <c r="E305" s="5">
         <v>1</v>
       </c>
@@ -12848,7 +12845,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:9">
@@ -12856,13 +12853,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="C306" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="C306" s="33" t="s">
+      <c r="D306" s="33" t="s">
         <v>896</v>
-      </c>
-      <c r="D306" s="33" t="s">
-        <v>897</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -12882,13 +12879,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>899</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>900</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -12908,25 +12905,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="C308" s="32" t="s">
         <v>901</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="D308" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="E308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1</v>
+      </c>
+      <c r="I308" s="32" t="s">
         <v>903</v>
-      </c>
-      <c r="E308" s="5">
-        <v>1</v>
-      </c>
-      <c r="F308" s="5">
-        <v>1</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1</v>
-      </c>
-      <c r="I308" s="32" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="309" s="5" customFormat="1" spans="1:9">
@@ -12934,13 +12931,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>905</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="D309" s="33" t="s">
         <v>906</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>907</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -12960,14 +12957,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="C310" s="32" t="s">
         <v>908</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="D310" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="D310" s="33" t="s">
-        <v>910</v>
-      </c>
       <c r="E310" s="5">
         <v>1</v>
       </c>
@@ -12978,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="32" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="311" s="5" customFormat="1" spans="1:9">
@@ -12986,14 +12983,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="C311" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="D311" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="D311" s="33" t="s">
-        <v>913</v>
-      </c>
       <c r="E311" s="5">
         <v>0</v>
       </c>
@@ -13004,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="32" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="312" s="5" customFormat="1" spans="1:7">
@@ -13012,13 +13009,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="C312" s="32" t="s">
         <v>914</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="D312" s="33" t="s">
         <v>915</v>
-      </c>
-      <c r="D312" s="33" t="s">
-        <v>916</v>
       </c>
       <c r="E312" s="5">
         <v>0</v>
@@ -13035,25 +13032,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="42" t="s">
+        <v>916</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>917</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="D313" s="33" t="s">
         <v>918</v>
       </c>
-      <c r="D313" s="33" t="s">
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>0</v>
+      </c>
+      <c r="I313" s="32" t="s">
         <v>919</v>
-      </c>
-      <c r="E313" s="5">
-        <v>0</v>
-      </c>
-      <c r="F313" s="5">
-        <v>0</v>
-      </c>
-      <c r="G313" s="5">
-        <v>0</v>
-      </c>
-      <c r="I313" s="32" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
@@ -13061,13 +13058,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="42" t="s">
+        <v>920</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>921</v>
       </c>
-      <c r="C314" s="32" t="s">
+      <c r="D314" s="43" t="s">
         <v>922</v>
-      </c>
-      <c r="D314" s="43" t="s">
-        <v>923</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -13087,25 +13084,25 @@
         <v>314</v>
       </c>
       <c r="B315" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>924</v>
       </c>
-      <c r="C315" s="32" t="s">
+      <c r="D315" s="33" t="s">
         <v>925</v>
       </c>
-      <c r="D315" s="33" t="s">
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="I315" s="32" t="s">
         <v>926</v>
-      </c>
-      <c r="E315" s="5">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
-        <v>0</v>
-      </c>
-      <c r="G315" s="5">
-        <v>0</v>
-      </c>
-      <c r="I315" s="32" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
@@ -13113,13 +13110,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="42" t="s">
+        <v>927</v>
+      </c>
+      <c r="C316" s="32" t="s">
         <v>928</v>
       </c>
-      <c r="C316" s="32" t="s">
+      <c r="D316" s="43" t="s">
         <v>929</v>
-      </c>
-      <c r="D316" s="43" t="s">
-        <v>930</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -13139,22 +13136,22 @@
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
+        <v>930</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="E317" s="6">
+        <v>1</v>
+      </c>
+      <c r="F317" s="6">
+        <v>1</v>
+      </c>
+      <c r="G317" s="6">
+        <v>1</v>
+      </c>
+      <c r="I317" s="37" t="s">
         <v>932</v>
-      </c>
-      <c r="E317" s="6">
-        <v>1</v>
-      </c>
-      <c r="F317" s="6">
-        <v>1</v>
-      </c>
-      <c r="G317" s="6">
-        <v>1</v>
-      </c>
-      <c r="I317" s="37" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="318" s="6" customFormat="1" spans="1:9">
@@ -13162,22 +13159,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>934</v>
       </c>
-      <c r="C318" s="37" t="s">
+      <c r="E318" s="6">
+        <v>1</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+      <c r="G318" s="6">
+        <v>1</v>
+      </c>
+      <c r="I318" s="37" t="s">
         <v>935</v>
-      </c>
-      <c r="E318" s="6">
-        <v>1</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="I318" s="37" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="319" s="6" customFormat="1" spans="1:9">
@@ -13185,11 +13182,11 @@
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
+        <v>936</v>
+      </c>
+      <c r="C319" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C319" s="37" t="s">
-        <v>938</v>
-      </c>
       <c r="E319" s="6">
         <v>1</v>
       </c>
@@ -13200,7 +13197,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="37" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="320" s="6" customFormat="1" spans="1:9">
@@ -13208,10 +13205,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="45" t="s">
+        <v>938</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>939</v>
-      </c>
-      <c r="C320" s="37" t="s">
-        <v>940</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -13231,10 +13228,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="46" t="s">
+        <v>940</v>
+      </c>
+      <c r="C321" s="37" t="s">
         <v>941</v>
-      </c>
-      <c r="C321" s="37" t="s">
-        <v>942</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -13254,25 +13251,25 @@
         <v>321</v>
       </c>
       <c r="B322" s="44" t="s">
+        <v>942</v>
+      </c>
+      <c r="C322" s="37" t="s">
         <v>943</v>
       </c>
-      <c r="C322" s="37" t="s">
+      <c r="D322" s="44" t="s">
         <v>944</v>
       </c>
-      <c r="D322" s="44" t="s">
+      <c r="E322" s="6">
+        <v>1</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="I322" s="37" t="s">
         <v>945</v>
-      </c>
-      <c r="E322" s="6">
-        <v>1</v>
-      </c>
-      <c r="F322" s="6">
-        <v>1</v>
-      </c>
-      <c r="G322" s="6">
-        <v>1</v>
-      </c>
-      <c r="I322" s="37" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" spans="1:9">
@@ -13280,10 +13277,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="47" t="s">
+        <v>946</v>
+      </c>
+      <c r="C323" s="32" t="s">
         <v>947</v>
-      </c>
-      <c r="C323" s="32" t="s">
-        <v>948</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13296,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="324" s="5" customFormat="1" spans="1:9">
@@ -13304,14 +13301,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="C324" s="32" t="s">
         <v>949</v>
       </c>
-      <c r="C324" s="32" t="s">
+      <c r="D324" s="33" t="s">
         <v>950</v>
       </c>
-      <c r="D324" s="33" t="s">
-        <v>951</v>
-      </c>
       <c r="E324" s="5">
         <v>0</v>
       </c>
@@ -13322,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="325" s="5" customFormat="1" spans="1:9">
@@ -13330,11 +13327,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C325" s="32" t="s">
         <v>952</v>
       </c>
-      <c r="C325" s="32" t="s">
-        <v>953</v>
-      </c>
       <c r="E325" s="5">
         <v>0</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="326" s="5" customFormat="1" spans="1:9">
@@ -13353,28 +13350,28 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="C326" s="33" t="s">
         <v>954</v>
       </c>
-      <c r="C326" s="33" t="s">
+      <c r="D326" s="33" t="s">
         <v>955</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0</v>
+      </c>
+      <c r="G326" s="5">
+        <v>0</v>
+      </c>
+      <c r="H326" s="5" t="s">
         <v>956</v>
       </c>
-      <c r="E326" s="5">
-        <v>0</v>
-      </c>
-      <c r="F326" s="5">
-        <v>0</v>
-      </c>
-      <c r="G326" s="5">
-        <v>0</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>957</v>
-      </c>
       <c r="I326" s="32" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="327" s="5" customFormat="1" spans="1:9">
@@ -13382,25 +13379,25 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
+        <v>958</v>
+      </c>
+      <c r="E327" s="5">
+        <v>0</v>
+      </c>
+      <c r="F327" s="5">
+        <v>0</v>
+      </c>
+      <c r="G327" s="5">
+        <v>0</v>
+      </c>
+      <c r="I327" s="32" t="s">
         <v>959</v>
-      </c>
-      <c r="E327" s="5">
-        <v>0</v>
-      </c>
-      <c r="F327" s="5">
-        <v>0</v>
-      </c>
-      <c r="G327" s="5">
-        <v>0</v>
-      </c>
-      <c r="I327" s="32" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="328" s="5" customFormat="1" spans="1:9">
@@ -13408,25 +13405,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
+        <v>960</v>
+      </c>
+      <c r="C328" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="C328" s="32" t="s">
+      <c r="D328" s="33" t="s">
         <v>962</v>
       </c>
-      <c r="D328" s="33" t="s">
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>0</v>
+      </c>
+      <c r="I328" s="32" t="s">
         <v>963</v>
-      </c>
-      <c r="E328" s="5">
-        <v>0</v>
-      </c>
-      <c r="F328" s="5">
-        <v>0</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="I328" s="32" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="329" s="5" customFormat="1" spans="1:9">
@@ -13434,13 +13431,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="C329" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="C329" s="32" t="s">
+      <c r="D329" s="32" t="s">
         <v>966</v>
-      </c>
-      <c r="D329" s="32" t="s">
-        <v>967</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13460,13 +13457,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
+        <v>967</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="D330" s="5" t="s">
         <v>969</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>970</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13486,13 +13483,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" t="s">
         <v>972</v>
-      </c>
-      <c r="D331" t="s">
-        <v>973</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13512,13 +13509,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C332" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="D332" t="s">
         <v>975</v>
-      </c>
-      <c r="D332" t="s">
-        <v>976</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13538,25 +13535,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
+        <v>976</v>
+      </c>
+      <c r="C333" s="32" t="s">
         <v>977</v>
       </c>
-      <c r="C333" s="32" t="s">
+      <c r="D333" s="28" t="s">
         <v>978</v>
       </c>
-      <c r="D333" s="28" t="s">
+      <c r="E333" s="5">
+        <v>1</v>
+      </c>
+      <c r="F333" s="5">
+        <v>1</v>
+      </c>
+      <c r="G333" s="5">
+        <v>1</v>
+      </c>
+      <c r="I333" s="32" t="s">
         <v>979</v>
-      </c>
-      <c r="E333" s="5">
-        <v>1</v>
-      </c>
-      <c r="F333" s="5">
-        <v>1</v>
-      </c>
-      <c r="G333" s="5">
-        <v>1</v>
-      </c>
-      <c r="I333" s="32" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13564,25 +13561,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>981</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+      <c r="G334" s="5">
+        <v>1</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>982</v>
-      </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13590,22 +13587,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>985</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13613,13 +13610,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>987</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>988</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>989</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13639,25 +13636,25 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>990</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>991</v>
       </c>
-      <c r="D337" s="28" t="s">
+      <c r="E337" s="5">
+        <v>1</v>
+      </c>
+      <c r="F337" s="5">
+        <v>1</v>
+      </c>
+      <c r="G337" s="5">
+        <v>1</v>
+      </c>
+      <c r="I337" s="32" t="s">
         <v>992</v>
-      </c>
-      <c r="E337" s="5">
-        <v>1</v>
-      </c>
-      <c r="F337" s="5">
-        <v>1</v>
-      </c>
-      <c r="G337" s="5">
-        <v>1</v>
-      </c>
-      <c r="I337" s="32" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13665,25 +13662,25 @@
         <v>337</v>
       </c>
       <c r="B338" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C338" t="s">
         <v>994</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" s="50" t="s">
         <v>995</v>
       </c>
-      <c r="D338" s="50" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
         <v>996</v>
-      </c>
-      <c r="E338">
-        <v>1</v>
-      </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-      <c r="I338" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13691,11 +13688,11 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="C339" t="s">
         <v>998</v>
       </c>
-      <c r="C339" t="s">
-        <v>999</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13706,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="340" ht="15.75" spans="1:9">
@@ -13714,25 +13711,25 @@
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
+        <v>999</v>
+      </c>
+      <c r="C340" t="s">
         <v>1000</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>1001</v>
       </c>
-      <c r="D340" s="49" t="s">
+      <c r="E340" s="5">
+        <v>1</v>
+      </c>
+      <c r="F340" s="5">
+        <v>1</v>
+      </c>
+      <c r="G340" s="5">
+        <v>1</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>1002</v>
-      </c>
-      <c r="E340" s="5">
-        <v>1</v>
-      </c>
-      <c r="F340" s="5">
-        <v>1</v>
-      </c>
-      <c r="G340" s="5">
-        <v>1</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -13762,7 +13759,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.18/game_module_config.xlsx
+++ b/config_5.18/game_module_config.xlsx
@@ -3279,7 +3279,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>立冬福袋</t>
+    <t>幸运福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -5064,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C281" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I288" sqref="I288"/>
+      <selection pane="bottomRight" activeCell="C292" sqref="C292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
